--- a/big_fit/compiled_data_stats.xlsx
+++ b/big_fit/compiled_data_stats.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63616A-FD29-432E-BF8A-1955D5F6C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A76682-F442-4CDF-9398-503511FBAD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24810" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="dont_touch" sheetId="2" r:id="rId2"/>
+    <sheet name="time_plot" sheetId="4" r:id="rId2"/>
+    <sheet name="dont_touch" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>CAGE#</t>
   </si>
@@ -50,24 +64,60 @@
     <t>Guide_Name</t>
   </si>
   <si>
+    <t>Total-Indel</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-B01</t>
+  </si>
+  <si>
     <t>CAGE3056</t>
   </si>
   <si>
-    <t>Miller-Plate96-B01</t>
-  </si>
-  <si>
     <t>mGas6</t>
   </si>
   <si>
+    <t>day0 g5</t>
+  </si>
+  <si>
     <t>Miller-Plate96-B02</t>
   </si>
   <si>
+    <t>day3 g5</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-B03</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-B04</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-B05</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-B06</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D01</t>
+  </si>
+  <si>
     <t>CAGE3057</t>
   </si>
   <si>
-    <t>Miller-Plate96-D01</t>
-  </si>
-  <si>
     <t>mMertk</t>
   </si>
   <si>
@@ -104,17 +154,182 @@
     <t>CAGE3057_rep3</t>
   </si>
   <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>g11</t>
+    <t>FBX011</t>
+  </si>
+  <si>
+    <t>FBX011 G10</t>
+  </si>
+  <si>
+    <t>FBX011 G11</t>
+  </si>
+  <si>
+    <t>NPM G13</t>
+  </si>
+  <si>
+    <t>DKO FBX011 G10</t>
+  </si>
+  <si>
+    <t>DKO NPM1 G13</t>
+  </si>
+  <si>
+    <t>DKO FBXO11 G11</t>
+  </si>
+  <si>
+    <t>AAVS1</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D06</t>
+  </si>
+  <si>
+    <t>CAGE3058</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D07</t>
+  </si>
+  <si>
+    <t>CAGE3059</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D08</t>
+  </si>
+  <si>
+    <t>CAGE3060</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D09</t>
+  </si>
+  <si>
+    <t>CAGE3061</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D10</t>
+  </si>
+  <si>
+    <t>CAGE3062</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D11</t>
+  </si>
+  <si>
+    <t>CAGE3063</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D12</t>
+  </si>
+  <si>
+    <t>CAGE3064</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D13</t>
+  </si>
+  <si>
+    <t>CAGE3065</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D14</t>
+  </si>
+  <si>
+    <t>CAGE3066</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D15</t>
+  </si>
+  <si>
+    <t>CAGE3067</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D16</t>
+  </si>
+  <si>
+    <t>CAGE3068</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D17</t>
+  </si>
+  <si>
+    <t>CAGE3069</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D18</t>
+  </si>
+  <si>
+    <t>CAGE3070</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D19</t>
+  </si>
+  <si>
+    <t>CAGE3071</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D20</t>
+  </si>
+  <si>
+    <t>CAGE3072</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D21</t>
+  </si>
+  <si>
+    <t>CAGE3073</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D22</t>
+  </si>
+  <si>
+    <t>CAGE3074</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D23</t>
+  </si>
+  <si>
+    <t>CAGE3075</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D24</t>
+  </si>
+  <si>
+    <t>CAGE3076</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D25</t>
+  </si>
+  <si>
+    <t>CAGE3077</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D26</t>
+  </si>
+  <si>
+    <t>CAGE3078</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D27</t>
+  </si>
+  <si>
+    <t>CAGE3079</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D28</t>
+  </si>
+  <si>
+    <t>CAGE3080</t>
+  </si>
+  <si>
+    <t>Miller-Plate96-D29</t>
+  </si>
+  <si>
+    <t>CAGE3081</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +341,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,26 +712,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -539,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>96.3</v>
@@ -558,9 +779,6 @@
       </c>
       <c r="H2">
         <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -568,16 +786,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0.6</v>
@@ -588,1275 +806,1340 @@
       <c r="H3">
         <v>2.9</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>97.6</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2.1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>97.6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>250</v>
       </c>
     </row>
@@ -1865,23 +2148,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7DE791D-F46E-4FEE-8974-607610808501}">
+          <x14:formula1>
+            <xm:f>dont_touch!$A$2:$A$251</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I250</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{958AA415-93E0-42B7-9FF1-8B8BF0D7ED39}">
           <x14:formula1>
             <xm:f>dont_touch!$A$2:$A$251</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B7DE791D-F46E-4FEE-8974-607610808501}">
-          <x14:formula1>
-            <xm:f>dont_touch!$A$2:$A$251</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I246</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{42B4B9C9-3C60-48CF-8AD5-C99FA8C92A97}">
           <x14:formula1>
             <xm:f>dont_touch!$C$2:$C$251</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J247</xm:sqref>
+          <xm:sqref>J2:J251</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1890,55 +2173,3053 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F40948-8488-4A33-ABE9-CB0E2F3FF8E9}">
+  <dimension ref="A1:I251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:G2)</f>
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">SUM(F3:G3)</f>
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>58</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>35</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>87</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">SUM(F67:G67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="2">SUM(F131:G131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H251" si="3">SUM(F195:G195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B82580C-6819-4D70-A504-0ABCA6784148}">
+          <x14:formula1>
+            <xm:f>dont_touch!$I$1:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I251</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
